--- a/ttgood/backup3/id006.xlsx
+++ b/ttgood/backup3/id006.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="450" windowWidth="20160" windowHeight="7410"/>
+    <workbookView xWindow="570" yWindow="405" windowWidth="27720" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -20,8 +20,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -67,11 +67,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -361,27 +356,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -390,13 +370,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
